--- a/Code/Plotting in R/Data/Reversal_R_Import.xlsx
+++ b/Code/Plotting in R/Data/Reversal_R_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Box Sync/Lab_Hallem/Astra/Writing/Bryant et al 20xx/Data/Reversal Behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A58FDA-A102-C748-80A0-83D3FD89ED07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15174EC7-D1BB-4E4B-AE48-BF8921E849BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="9820" windowWidth="27640" windowHeight="16540" xr2:uid="{2B6833DA-3951-6F4E-9795-BD8C44705E1A}"/>
+    <workbookView xWindow="3400" yWindow="5860" windowWidth="27640" windowHeight="16540" xr2:uid="{2B6833DA-3951-6F4E-9795-BD8C44705E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Tc</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Percent_All_Reversing</t>
+  </si>
+  <si>
+    <t>Tc</t>
   </si>
 </sst>
 </file>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D199A291-255C-8847-A4D6-20539ABAD036}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,16 +416,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>8.9887640449438209</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -674,7 +674,7 @@
         <v>23.949579831932773</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -688,7 +688,7 @@
         <v>33.974358974358978</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -702,7 +702,7 @@
         <v>61.202185792349731</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -716,7 +716,7 @@
         <v>30.927835051546392</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -744,7 +744,7 @@
         <v>44.292237442922371</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -758,7 +758,7 @@
         <v>94.375</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -772,7 +772,7 @@
         <v>88.955223880597018</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -786,7 +786,7 @@
         <v>87.640449438202253</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -800,7 +800,7 @@
         <v>94.520547945205479</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -814,7 +814,7 @@
         <v>40.16393442622951</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -828,7 +828,7 @@
         <v>28.30188679245283</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -842,7 +842,7 @@
         <v>62.637362637362635</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -856,7 +856,7 @@
         <v>64.705882352941174</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>37.864077669902912</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>15</v>
